--- a/Data/sample.xlsx
+++ b/Data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Master\Master_DataMining\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F2F52-12DC-461B-9230-F3F699F853CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250BAD05-506A-4B63-A0F2-110D9BF0F6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11459,7 +11459,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
